--- a/RRHH/rWSAsistencia/Controller/PRUEBA_TAREO.xlsx
+++ b/RRHH/rWSAsistencia/Controller/PRUEBA_TAREO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="64">
   <si>
     <t>DNI</t>
   </si>
@@ -135,113 +135,86 @@
     <t>D_20092017</t>
   </si>
   <si>
-    <t>00126018</t>
-  </si>
-  <si>
-    <t>YAICATE</t>
-  </si>
-  <si>
-    <t>CHOTA</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>22291239</t>
-  </si>
-  <si>
-    <t>ORMEÑO</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>22302095</t>
-  </si>
-  <si>
-    <t>VILLAVERDE</t>
-  </si>
-  <si>
-    <t>LÒPEZ</t>
-  </si>
-  <si>
-    <t>ENRIQUE FERMIN</t>
-  </si>
-  <si>
-    <t>23557346</t>
-  </si>
-  <si>
-    <t>CASMA</t>
-  </si>
-  <si>
-    <t>DONAYRE</t>
-  </si>
-  <si>
-    <t>ALBERT RONY</t>
-  </si>
-  <si>
-    <t>44220202</t>
-  </si>
-  <si>
-    <t>SILVA</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>FELIX JESUS</t>
-  </si>
-  <si>
-    <t>45201452</t>
-  </si>
-  <si>
-    <t>CALDERON</t>
-  </si>
-  <si>
-    <t>ALPELIMA</t>
-  </si>
-  <si>
-    <t>WILLIAM ANGEL</t>
-  </si>
-  <si>
-    <t>45867659</t>
+    <t>FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALCEDO  </t>
+  </si>
+  <si>
+    <t>IZQUIERDO</t>
+  </si>
+  <si>
+    <t>NÉLIDA ALINA</t>
+  </si>
+  <si>
+    <t>MELGAREJO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>LEILA ZENAIDA</t>
+  </si>
+  <si>
+    <t>42870823</t>
+  </si>
+  <si>
+    <t>AÑANCA</t>
+  </si>
+  <si>
+    <t>GONZALES</t>
+  </si>
+  <si>
+    <t>EMILY MAZIEL</t>
+  </si>
+  <si>
+    <t>46466020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRUNATEGUI </t>
+  </si>
+  <si>
+    <t>QUISPE</t>
+  </si>
+  <si>
+    <t>GRECIA JIMENA</t>
+  </si>
+  <si>
+    <t>44837282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCALA </t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>EMILY SHAROL</t>
+  </si>
+  <si>
+    <t>44981033</t>
+  </si>
+  <si>
+    <t>TESEN</t>
   </si>
   <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>LUIS MIGUEL JUVENCIO</t>
-  </si>
-  <si>
-    <t>70981190</t>
-  </si>
-  <si>
-    <t>ARTEAGA</t>
-  </si>
-  <si>
-    <t>QUICHIZ</t>
-  </si>
-  <si>
-    <t>RODRIGO JOSE CARLOS</t>
-  </si>
-  <si>
-    <t>0077</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>DM</t>
+    <t>CHRISTIAN RAINIER</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>0026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +377,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -413,11 +392,39 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,18 +624,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -696,21 +709,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,32 +820,76 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,22 +898,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -898,7 +940,7 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -933,16 +975,111 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1287,24 +1424,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="8"/>
-    <col min="6" max="6" width="11.42578125" style="8"/>
-    <col min="7" max="7" width="11.42578125" style="11"/>
-    <col min="9" max="9" width="11.42578125" style="11"/>
-    <col min="11" max="16" width="11.42578125" style="11"/>
-    <col min="19" max="22" width="11.42578125" style="11"/>
-    <col min="27" max="37" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="37" width="11" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1417,452 +1561,806 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="27">
+        <v>42340454</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="19"/>
+    </row>
+    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30">
+        <v>71459009</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+      <c r="Q3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="22"/>
     </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="14" t="s">
+    <row r="4" spans="1:38" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>4</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
+      <c r="C4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="19"/>
     </row>
-    <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <f t="shared" ref="A4:A9" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="14" t="s">
+    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>5</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
+      <c r="C5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="19"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="14" t="s">
+    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
+      <c r="C6" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL6" s="19"/>
     </row>
-    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="14" t="s">
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>7</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="C7" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="19"/>
     </row>
-    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
     </row>
-    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
     </row>
-    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RRHH/rWSAsistencia/Controller/PRUEBA_TAREO.xlsx
+++ b/RRHH/rWSAsistencia/Controller/PRUEBA_TAREO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
   <si>
     <t>DNI</t>
   </si>
@@ -135,86 +135,113 @@
     <t>D_20092017</t>
   </si>
   <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALCEDO  </t>
-  </si>
-  <si>
-    <t>IZQUIERDO</t>
-  </si>
-  <si>
-    <t>NÉLIDA ALINA</t>
-  </si>
-  <si>
-    <t>MELGAREJO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>LEILA ZENAIDA</t>
-  </si>
-  <si>
-    <t>42870823</t>
-  </si>
-  <si>
-    <t>AÑANCA</t>
-  </si>
-  <si>
-    <t>GONZALES</t>
-  </si>
-  <si>
-    <t>EMILY MAZIEL</t>
-  </si>
-  <si>
-    <t>46466020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRUNATEGUI </t>
-  </si>
-  <si>
-    <t>QUISPE</t>
-  </si>
-  <si>
-    <t>GRECIA JIMENA</t>
-  </si>
-  <si>
-    <t>44837282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALCALA </t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>EMILY SHAROL</t>
-  </si>
-  <si>
-    <t>44981033</t>
-  </si>
-  <si>
-    <t>TESEN</t>
+    <t>00126018</t>
+  </si>
+  <si>
+    <t>YAICATE</t>
+  </si>
+  <si>
+    <t>CHOTA</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>22291239</t>
+  </si>
+  <si>
+    <t>ORMEÑO</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>22302095</t>
+  </si>
+  <si>
+    <t>VILLAVERDE</t>
+  </si>
+  <si>
+    <t>LÒPEZ</t>
+  </si>
+  <si>
+    <t>ENRIQUE FERMIN</t>
+  </si>
+  <si>
+    <t>23557346</t>
+  </si>
+  <si>
+    <t>CASMA</t>
+  </si>
+  <si>
+    <t>DONAYRE</t>
+  </si>
+  <si>
+    <t>ALBERT RONY</t>
+  </si>
+  <si>
+    <t>44220202</t>
+  </si>
+  <si>
+    <t>SILVA</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>FELIX JESUS</t>
+  </si>
+  <si>
+    <t>45201452</t>
+  </si>
+  <si>
+    <t>CALDERON</t>
+  </si>
+  <si>
+    <t>ALPELIMA</t>
+  </si>
+  <si>
+    <t>WILLIAM ANGEL</t>
+  </si>
+  <si>
+    <t>45867659</t>
   </si>
   <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>CHRISTIAN RAINIER</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>0026</t>
+    <t>LUIS MIGUEL JUVENCIO</t>
+  </si>
+  <si>
+    <t>70981190</t>
+  </si>
+  <si>
+    <t>ARTEAGA</t>
+  </si>
+  <si>
+    <t>QUICHIZ</t>
+  </si>
+  <si>
+    <t>RODRIGO JOSE CARLOS</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>DM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,14 +404,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,39 +413,11 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,24 +617,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -709,6 +696,21 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,76 +822,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,22 +856,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -940,7 +898,7 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -975,111 +933,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1424,31 +1287,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="37" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8"/>
+    <col min="6" max="6" width="11.42578125" style="8"/>
+    <col min="7" max="7" width="11.42578125" style="11"/>
+    <col min="9" max="9" width="11.42578125" style="11"/>
+    <col min="11" max="16" width="11.42578125" style="11"/>
+    <col min="19" max="22" width="11.42578125" style="11"/>
+    <col min="27" max="37" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1561,806 +1417,452 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="27">
-        <v>42340454</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="19"/>
+      <c r="C8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
     </row>
-    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
-        <v>3</v>
-      </c>
-      <c r="B3" s="30">
-        <v>71459009</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="22"/>
-    </row>
-    <row r="4" spans="1:38" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <v>4</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE4" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF4" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="19"/>
-    </row>
-    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
-        <v>5</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL5" s="19"/>
-    </row>
-    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="V6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG6" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH6" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL6" s="19"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <v>7</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL7" s="19"/>
-    </row>
-    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-    </row>
-    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-    </row>
-    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
+    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
